--- a/Tests/_Tests.xlsx
+++ b/Tests/_Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB487D9-46E7-4F34-9F48-9CC8B50E768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BB666-5E41-4E8A-8E9F-9EFBC1656F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3831" yWindow="1337" windowWidth="16458" windowHeight="9549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -57,11 +57,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,7 +69,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,13 +77,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -395,16 +395,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="2" width="41.875" customWidth="1"/>
+    <col min="1" max="2" width="41.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -490,21 +490,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="46.375" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="135.625" customWidth="1"/>
+    <col min="1" max="1" width="46.3828125" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" customWidth="1"/>
+    <col min="4" max="4" width="135.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,6 +516,70 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/_Tests.xlsx
+++ b/Tests/_Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BB666-5E41-4E8A-8E9F-9EFBC1656F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD8E03-670C-465B-B689-DEE6BF7B08A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3831" yWindow="1337" windowWidth="16458" windowHeight="9549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
